--- a/Data_science_outputs_highlands/Graphs/Third/2/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/2/Montlhy_consumption_3.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9766.096250200007</v>
+        <v>5831.383301500006</v>
       </c>
       <c r="C2" t="n">
-        <v>5769.48891873334</v>
+        <v>1061.902858066668</v>
       </c>
       <c r="D2" t="n">
-        <v>2891.714731366666</v>
+        <v>337.2011891333333</v>
       </c>
       <c r="E2" t="n">
-        <v>914.0054253166667</v>
+        <v>812.2218958333333</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9169.239485316673</v>
+        <v>5456.840483600006</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2722.312959833333</v>
+        <v>320.9769812166667</v>
       </c>
       <c r="E3" t="n">
-        <v>863.2742044666667</v>
+        <v>734.28843895</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9789.372459183342</v>
+        <v>5775.23712513334</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2898.214753483333</v>
+        <v>334.6401410166666</v>
       </c>
       <c r="E4" t="n">
-        <v>922.1916717333334</v>
+        <v>794.8663877166666</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9512.325642566673</v>
+        <v>5634.408681816673</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2806.073517483333</v>
+        <v>323.3125079666667</v>
       </c>
       <c r="E5" t="n">
-        <v>873.19816395</v>
+        <v>745.6453266166666</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9761.266876700009</v>
+        <v>5835.893644833341</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2899.3816235</v>
+        <v>326.8227731333333</v>
       </c>
       <c r="E6" t="n">
-        <v>946.1214570333333</v>
+        <v>802.4735741000001</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9474.944025333341</v>
+        <v>5651.941062050007</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2797.966348183334</v>
+        <v>323.6089341166667</v>
       </c>
       <c r="E7" t="n">
-        <v>888.71974565</v>
+        <v>766.45448965</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9794.619435883342</v>
+        <v>5807.42727733334</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2920.224256833333</v>
+        <v>337.6527878333333</v>
       </c>
       <c r="E8" t="n">
-        <v>917.92159775</v>
+        <v>789.4080030499999</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9750.051353550007</v>
+        <v>5800.113196716673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2907.628626933333</v>
+        <v>334.9083095833333</v>
       </c>
       <c r="E9" t="n">
-        <v>901.6114498166667</v>
+        <v>812.8507482166666</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9453.862332016675</v>
+        <v>5611.217960666673</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2814.574502766667</v>
+        <v>320.0807423333333</v>
       </c>
       <c r="E10" t="n">
-        <v>893.2824570166666</v>
+        <v>792.5588240333334</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9783.180798600008</v>
+        <v>5814.44197478334</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2903.882542466667</v>
+        <v>327.91545635</v>
       </c>
       <c r="E11" t="n">
-        <v>941.3962422166667</v>
+        <v>779.0420255666667</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9441.274548983341</v>
+        <v>5659.00359313334</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2812.50553455</v>
+        <v>318.80330485</v>
       </c>
       <c r="E12" t="n">
-        <v>882.2797698333333</v>
+        <v>768.6390324333333</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9489.06097203334</v>
+        <v>5614.12818113334</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2811.539198616666</v>
+        <v>327.5151420666667</v>
       </c>
       <c r="E13" t="n">
-        <v>868.8206530166667</v>
+        <v>761.2923952833333</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
